--- a/forecast_summary_B0D54QJ9CJ.xlsx
+++ b/forecast_summary_B0D54QJ9CJ.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>77.55307823680231</v>
       </c>
       <c r="D2" t="n">
-        <v>114.9343014630127</v>
+        <v>113.85806297945</v>
       </c>
       <c r="E2" t="n">
         <v>245</v>
@@ -511,6 +516,9 @@
         <is>
           <t>B760M GAMING PLUS WIFI DDR4</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>-482.1228672213048</v>
       </c>
       <c r="D3" t="n">
-        <v>-446.7839460602656</v>
+        <v>-442.7824397658194</v>
       </c>
       <c r="E3" t="n">
         <v>111</v>
@@ -547,6 +555,9 @@
         <is>
           <t>B760M GAMING PLUS WIFI DDR4</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>-1085.867503076328</v>
       </c>
       <c r="D4" t="n">
-        <v>-1050.04825286776</v>
+        <v>-1051.406355039666</v>
       </c>
       <c r="E4" t="n">
         <v>129</v>
@@ -583,6 +594,9 @@
         <is>
           <t>B760M GAMING PLUS WIFI DDR4</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>-1167.239629961673</v>
       </c>
       <c r="D5" t="n">
-        <v>-1128.062245151714</v>
+        <v>-1130.822241037837</v>
       </c>
       <c r="E5" t="n">
         <v>76</v>
@@ -619,6 +633,9 @@
         <is>
           <t>B760M GAMING PLUS WIFI DDR4</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>-438.5555466415178</v>
       </c>
       <c r="D6" t="n">
-        <v>-402.2109518726264</v>
+        <v>-403.4960643341113</v>
       </c>
       <c r="E6" t="n">
         <v>81</v>
@@ -655,6 +672,9 @@
         <is>
           <t>B760M GAMING PLUS WIFI DDR4</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>668.9162357185668</v>
       </c>
       <c r="D7" t="n">
-        <v>704.2521537977162</v>
+        <v>702.0273435081118</v>
       </c>
       <c r="E7" t="n">
         <v>81</v>
@@ -691,6 +711,9 @@
         <is>
           <t>B760M GAMING PLUS WIFI DDR4</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>1267.559940916296</v>
       </c>
       <c r="D8" t="n">
-        <v>1303.666729392354</v>
+        <v>1305.778044322842</v>
       </c>
       <c r="E8" t="n">
         <v>80</v>
@@ -727,6 +750,9 @@
         <is>
           <t>B760M GAMING PLUS WIFI DDR4</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>867.3304068931102</v>
       </c>
       <c r="D9" t="n">
-        <v>904.5373428945468</v>
+        <v>901.8884045982487</v>
       </c>
       <c r="E9" t="n">
         <v>80</v>
@@ -763,6 +789,9 @@
         <is>
           <t>B760M GAMING PLUS WIFI DDR4</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>-58.5306457629659</v>
       </c>
       <c r="D10" t="n">
-        <v>-24.11780036800059</v>
+        <v>-20.36055817682518</v>
       </c>
       <c r="E10" t="n">
         <v>83</v>
@@ -799,6 +828,9 @@
         <is>
           <t>B760M GAMING PLUS WIFI DDR4</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>-506.9962740769867</v>
       </c>
       <c r="D11" t="n">
-        <v>-470.781778842144</v>
+        <v>-472.380340270423</v>
       </c>
       <c r="E11" t="n">
         <v>105</v>
@@ -835,6 +867,9 @@
         <is>
           <t>B760M GAMING PLUS WIFI DDR4</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>-6.372978768203834</v>
       </c>
       <c r="D12" t="n">
-        <v>31.92015439869647</v>
+        <v>27.66063195731043</v>
       </c>
       <c r="E12" t="n">
         <v>110</v>
@@ -871,6 +906,9 @@
         <is>
           <t>B760M GAMING PLUS WIFI DDR4</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>859.108218205987</v>
       </c>
       <c r="D13" t="n">
-        <v>897.1951794053904</v>
+        <v>894.8394219847748</v>
       </c>
       <c r="E13" t="n">
         <v>111</v>
@@ -907,6 +945,9 @@
         <is>
           <t>B760M GAMING PLUS WIFI DDR4</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>1103.876315049093</v>
       </c>
       <c r="D14" t="n">
-        <v>1141.460088606646</v>
+        <v>1140.700070471393</v>
       </c>
       <c r="E14" t="n">
         <v>107</v>
@@ -943,6 +984,9 @@
         <is>
           <t>B760M GAMING PLUS WIFI DDR4</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>471.3591026260883</v>
       </c>
       <c r="D15" t="n">
-        <v>508.4712986764993</v>
+        <v>507.9530190183256</v>
       </c>
       <c r="E15" t="n">
         <v>104</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>B760M GAMING PLUS WIFI DDR4</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>-266.5028823027262</v>
       </c>
       <c r="D16" t="n">
-        <v>-230.5784498210062</v>
+        <v>-229.3950826817105</v>
       </c>
       <c r="E16" t="n">
         <v>99</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>B760M GAMING PLUS WIFI DDR4</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>-216.2590979963829</v>
       </c>
       <c r="D17" t="n">
-        <v>-180.342776337378</v>
+        <v>-180.6804511963525</v>
       </c>
       <c r="E17" t="n">
         <v>99</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>B760M GAMING PLUS WIFI DDR4</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>575.3590909744144</v>
       </c>
       <c r="D18" t="n">
-        <v>610.4402889233768</v>
+        <v>609.7634431423269</v>
       </c>
       <c r="E18" t="n">
         <v>91</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>B760M GAMING PLUS WIFI DDR4</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1094,13 +1150,13 @@
         <v>45746</v>
       </c>
       <c r="B19" t="n">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="C19" t="n">
         <v>1170.794377902271</v>
       </c>
       <c r="D19" t="n">
-        <v>1206.9356666558</v>
+        <v>1208.04963867287</v>
       </c>
       <c r="E19" t="n">
         <v>90</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>B760M GAMING PLUS WIFI DDR4</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>859.7321976618745</v>
       </c>
       <c r="D20" t="n">
-        <v>897.1401811716254</v>
+        <v>896.6722113166555</v>
       </c>
       <c r="E20" t="n">
         <v>112</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>B760M GAMING PLUS WIFI DDR4</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>15.67397583060568</v>
       </c>
       <c r="D21" t="n">
-        <v>50.58654472754861</v>
+        <v>52.49363696058981</v>
       </c>
       <c r="E21" t="n">
         <v>86</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>B760M GAMING PLUS WIFI DDR4</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
